--- a/Feast data/AEZ_parameters.xlsx
+++ b/Feast data/AEZ_parameters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76A1C87-FD08-4080-B0D1-652C4147B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA461B8F-ECF9-46FD-ADE0-5C2B4563E30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="THH" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Awendo</t>
   </si>
@@ -94,13 +95,112 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Grazing</t>
+  </si>
+  <si>
+    <t>Crop residue</t>
+  </si>
+  <si>
+    <t>Cultivated fodder</t>
+  </si>
+  <si>
+    <t>Collected fodder</t>
+  </si>
+  <si>
+    <t>Concentrate/purchased</t>
+  </si>
+  <si>
+    <t>Feed type</t>
+  </si>
+  <si>
+    <t>% DMI</t>
+  </si>
+  <si>
+    <t>Use efficiency</t>
+  </si>
+  <si>
+    <t>Ratio to grain</t>
+  </si>
+  <si>
+    <t>Diet DMI %</t>
+  </si>
+  <si>
+    <t>Cropland %</t>
+  </si>
+  <si>
+    <t>FEAST</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Grain yield (kg/ha/yr)</t>
+  </si>
+  <si>
+    <t>Grass yield (kg/ha/yr)</t>
+  </si>
+  <si>
+    <t>Ratio to total grass</t>
+  </si>
+  <si>
+    <t>Total grain/maize</t>
+  </si>
+  <si>
+    <t>Total grass</t>
+  </si>
+  <si>
+    <t>Grassland %</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>% of total land footprint</t>
+  </si>
+  <si>
+    <t>ha/TLU</t>
+  </si>
+  <si>
+    <t>Maize residue</t>
+  </si>
+  <si>
+    <t>Maize as concentrate</t>
+  </si>
+  <si>
+    <t>Unmanaged grassland</t>
+  </si>
+  <si>
+    <t>Managed grassland</t>
+  </si>
+  <si>
+    <t>Fraction of total biomass</t>
+  </si>
+  <si>
+    <t>Yield weighted by proportion in diet</t>
+  </si>
+  <si>
+    <t>Weighted average biomass available per ha (all feeds)</t>
+  </si>
+  <si>
+    <t>250 kg animal intake in tons/yr</t>
+  </si>
+  <si>
+    <t>Land footprint (ha/TLU)</t>
+  </si>
+  <si>
+    <t>Daily DMI (kg/kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +208,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,15 +267,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -446,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11DEA6-8D89-4D9F-A495-078C0693863D}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,7 +755,371 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f>AVERAGE(G5:G6)</f>
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0FC301-9B58-43C5-A375-F8B31B6A40EE}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2">
+        <f>Sheet1!E2</f>
+        <v>2211</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="2">
+        <f>1-Sheet1!F2</f>
+        <v>0.62149999999999994</v>
+      </c>
+      <c r="I2" s="2">
+        <f>B4</f>
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <f>I2/(F2*(1/G2)*(H2))</f>
+        <v>1.3099135347907579E-2</v>
+      </c>
+      <c r="K2" s="5">
+        <f>100*J2/J4</f>
+        <v>96.694732312720447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2">
+        <f>F2</f>
+        <v>2211</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>I3/(F3*(1/G3)*(H3))</f>
+        <v>4.477611940298507E-4</v>
+      </c>
+      <c r="K3" s="5">
+        <f>100*J3/J4</f>
+        <v>3.3052676872795654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <f>SUM(J2:J3)</f>
+        <v>1.354689654193743E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2">
+        <f>Sheet1!G7</f>
+        <v>3500</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <f>(B2+B3)</f>
+        <v>48</v>
+      </c>
+      <c r="J8">
+        <f>I8/(F8/G8)</f>
+        <v>6.8571428571428568E-3</v>
+      </c>
+      <c r="K8" s="3">
+        <f>100*J8/J10</f>
+        <v>84.336151168572854</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2">
+        <f>Sheet1!H2</f>
+        <v>10600</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <f>B5</f>
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <f>I9/(F9/G9)</f>
+        <v>1.2735849056603773E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <f>100*J9/J10</f>
+        <v>15.663848831427151</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J8:J9)</f>
+        <v>8.1307277628032346E-3</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="str">
+        <f>E2</f>
+        <v>Maize residue</v>
+      </c>
+      <c r="J13" s="3">
+        <f>100*J2/J$17</f>
+        <v>60.426987587578679</v>
+      </c>
+      <c r="K13" s="6">
+        <f>J13*N$13/100</f>
+        <v>0.25869039130379823</v>
+      </c>
+      <c r="N13">
+        <f>N19</f>
+        <v>0.42810406679444407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E14" t="str">
+        <f>E3</f>
+        <v>Maize as concentrate</v>
+      </c>
+      <c r="J14" s="3">
+        <f>100*J3/J$17</f>
+        <v>2.0655455032124079</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" ref="K14:K16" si="0">J14*N$13/100</f>
+        <v>8.8426843007420822E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E15" t="str">
+        <f>E8</f>
+        <v>Unmanaged grassland</v>
+      </c>
+      <c r="J15" s="3">
+        <f>100*J8/J$17</f>
+        <v>31.632353992052874</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13541939386279303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E16" t="str">
+        <f>E9</f>
+        <v>Managed grassland</v>
+      </c>
+      <c r="J16" s="3">
+        <f>100*J9/J$17</f>
+        <v>5.8751129171560468</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5151597327110732E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16">
+        <f>0.75*3.5</f>
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17">
+        <f>J4+J10</f>
+        <v>2.1677624304740663E-2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17">
+        <f>N16*250/1000</f>
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18">
+        <f>(1/1000)*(F2*J13*H2*G2+F3*J14*G3+F8*J15*G8+F9*J16*G8)/100</f>
+        <v>1.5329216676540032</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <f>N17/N18</f>
+        <v>0.42810406679444407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Feast data/AEZ_parameters.xlsx
+++ b/Feast data/AEZ_parameters.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA461B8F-ECF9-46FD-ADE0-5C2B4563E30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D63FF4-94E3-4F6B-8D76-E5F42762BE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FEAST_DMI_Data" sheetId="1" r:id="rId1"/>
     <sheet name="THH" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -304,9 +304,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -344,7 +344,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -450,7 +450,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -592,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,9 +606,9 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -637,7 +637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -726,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -755,7 +755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G7">
         <f>AVERAGE(G5:G6)</f>
         <v>3500</v>
@@ -770,19 +770,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0FC301-9B58-43C5-A375-F8B31B6A40EE}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="5" max="5" width="18.734375" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -808,7 +808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -819,14 +819,14 @@
         <v>42</v>
       </c>
       <c r="F2" s="2">
-        <f>Sheet1!E2</f>
+        <f>FEAST_DMI_Data!E2</f>
         <v>2211</v>
       </c>
       <c r="G2" s="9">
         <v>0.75</v>
       </c>
       <c r="H2" s="2">
-        <f>1-Sheet1!F2</f>
+        <f>1-FEAST_DMI_Data!F2</f>
         <v>0.62149999999999994</v>
       </c>
       <c r="I2" s="2">
@@ -842,7 +842,7 @@
         <v>96.694732312720447</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -875,7 +875,7 @@
         <v>3.3052676872795654</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -890,7 +890,7 @@
         <v>1.354689654193743E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -898,7 +898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
@@ -926,12 +926,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="2">
-        <f>Sheet1!G7</f>
+        <f>FEAST_DMI_Data!G7</f>
         <v>3500</v>
       </c>
       <c r="G8" s="8">
@@ -954,7 +954,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -962,7 +962,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="2">
-        <f>Sheet1!H2</f>
+        <f>FEAST_DMI_Data!H2</f>
         <v>10600</v>
       </c>
       <c r="G9" s="8">
@@ -985,7 +985,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="E10" t="s">
         <v>37</v>
@@ -997,12 +997,12 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10"/>
       <c r="I12" t="s">
         <v>47</v>
@@ -1014,7 +1014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1028,14 +1028,14 @@
       </c>
       <c r="K13" s="6">
         <f>J13*N$13/100</f>
-        <v>0.25869039130379823</v>
+        <v>0.32767449565147777</v>
       </c>
       <c r="N13">
         <f>N19</f>
-        <v>0.42810406679444407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.54226515127296249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1046,10 +1046,10 @@
       </c>
       <c r="K14" s="6">
         <f t="shared" ref="K14:K16" si="0">J14*N$13/100</f>
-        <v>8.8426843007420822E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1200733447606638E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Unmanaged grassland</v>
@@ -1060,10 +1060,10 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="0"/>
-        <v>0.13541939386279303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.17153123222620451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Managed grassland</v>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="0"/>
-        <v>2.5151597327110732E-2</v>
+        <v>3.1858689947673595E-2</v>
       </c>
       <c r="M16" t="s">
         <v>51</v>
       </c>
       <c r="N16">
-        <f>0.75*3.5</f>
-        <v>2.625</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.35">
+        <f>0.95*3.5</f>
+        <v>3.3249999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>39</v>
       </c>
@@ -1097,10 +1097,10 @@
       </c>
       <c r="N17">
         <f>N16*250/1000</f>
-        <v>0.65625</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.35">
+        <v>0.83124999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M18" t="s">
         <v>48</v>
       </c>
@@ -1109,13 +1109,13 @@
         <v>1.5329216676540032</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M19" t="s">
         <v>50</v>
       </c>
       <c r="N19">
         <f>N17/N18</f>
-        <v>0.42810406679444407</v>
+        <v>0.54226515127296249</v>
       </c>
     </row>
   </sheetData>
